--- a/Texts/Город Сокровищ/Все персонажи/Гровайл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Гровайл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="103">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -100,6 +100,234 @@
   </si>
   <si>
     <t xml:space="preserve"> Íú ôêäæí òñàèô çå, ëàë óïìûëï\nóú ðïäãïóïâéšûòÿ.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D24P11A/um2001.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There should be a Time Gear at\nthe deepest part of this forest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В дебрях этого леса должна\nнаходиться Шестерня Времени.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы пойдём сразу же, как ты\nподготовишься.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â äåáñÿö üóïãï ìåòà äïìçîà\nîàöïäéóûòÿ Šåòóåñîÿ Âñåíåîé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïêäæí òñàèô çå, ëàë óú\nðïäãïóïâéšûòÿ.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D24P11A/um2002.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It feels different from before...\nSomething has changed here…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hurry. We have to go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Здесь всё совсем иное...\nЧто-то изменилось...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Скорее. Нам нужно идти.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èäåòû âòæ òïâòåí éîïå...\nŒóï-óï éèíåîéìïòû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òëïñåå. Îàí îôçîï éäóé.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D27P11A/um2402.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to go to [CS:P]Temporal\nTower[CR] and set the Time Gears there.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That will put a stop to the\ndestruction of time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We don\'t have far to go,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> First, we need to reach the\nRainbow Stoneship!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно попасть в [CS:P]Темпоральную\nБашню[CR] и разместить там Шестерни Времени.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это положит конец разрушению\nвремени.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам не так далеко нужно пройти,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Для начала, нам нужно достичь\nРадужного Камнерабля!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï ðïðàòóû â [CS:P]Óåíðïñàìûîôý\nÁàšîý[CR] é ñàèíåòóéóû óàí Šåòóåñîé Âñåíåîé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï ðïìïçéó ëïîåø ñàèñôšåîéý\nâñåíåîé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îå óàë äàìåëï îôçîï ðñïêóé,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äìÿ îàœàìà, îàí îôçîï äïòóéœû\nÑàäôçîïãï Ëàíîåñàáìÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ll leave when you\'re ready!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re going off to the\n[CS:P]Hidden Land[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/um2401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы покинем пляж сразу же, как\nвы подготовитесь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы отправимся в [CS:P]Сокрытые Земли[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ðïëéîåí ðìÿç òñàèô çå, ëàë\nâú ðïäãïóïâéóåòû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ïóðñàâéíòÿ â [CS:P]Òïëñúóúå Èåíìé[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So the priority is finding the\nRainbow Stoneship.[K] If we find it, we can get\nto [CS:P]Temporal Tower[CR].</t>
+  </si>
+  <si>
+    <t>SCRIPT/D27P11A/um2404.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Наша основная задача - найти\nРадужный Камнерабль.[K] Если мы отыщем его,\nто сможем попасть в [CS:P]Темпоральную Башню[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы уйдём сразу же, как вы\nподготовитесь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàšà ïòîïâîàÿ èàäàœà - îàêóé\nÑàäôçîúê Ëàíîåñàáìû.[K] Åòìé íú ïóúþåí åãï,\nóï òíïçåí ðïðàòóû â [CS:P]Óåíðïñàìûîôý Áàšîý[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ôêäæí òñàèô çå, ëàë âú\nðïäãïóïâéóåòû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> According to [CS:N]Lapras[CR], the\n[CS:P]Old Ruins[CR] lie beyond this dungeon…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s where we should find the\nRainbow Stoneship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If we find the Rainbow\nStoneship, we\'ll take that to [CS:P]Temporal Tower[CR].</t>
+  </si>
+  <si>
+    <t>SCRIPT/D28P21A/um2401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Судя по тому, что говорил\n[CS:N]Лапрас[CR], [CS:P]Старые Руины[CR] находятся прямо за\nэтим подземельем...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Там мы сможем найти Радужный\nКамнерабль.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если мы найдём Радужный\nКамнерабль, то сможем попасть в\n[CS:P]Темпоральную Башню[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òôäÿ ðï óïíô, œóï ãïâïñéì\n[CS:N]Ìàðñàò[CR], [CS:P]Òóàñúå Ñôéîú[CR] îàöïäÿóòÿ ðñÿíï èà\nüóéí ðïäèåíåìûåí...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàí íú òíïçåí îàêóé Ñàäôçîúê\nËàíîåñàáìû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé íú îàêäæí Ñàäôçîúê\nËàíîåñàáìû, óï òíïçåí ðïðàòóû â\n[CS:P]Óåíðïñàìûîôý Áàšîý[CR].</t>
+  </si>
+  <si>
+    <t>SCRIPT/D28P21A/um2402.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve made it this far.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ll get through this,\nno matter what.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ôçå äàìåëï èàšìé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàë éìé éîàœå, îï íú ðñïäâéîåíòÿ\näàìûšå. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы уже далеко зашли.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Так или иначе, но мы продвинемся\nдальше.</t>
+  </si>
+  <si>
+    <t>159, 90</t>
+  </si>
+  <si>
+    <t>162, 93</t>
+  </si>
+  <si>
+    <t>308, 112</t>
+  </si>
+  <si>
+    <t>311, 115</t>
+  </si>
+  <si>
+    <t>SCRIPT/D28P21A/um2403.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It doesn\'t matter if [CS:N]Dusknoir[CR] is\nthere or not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ll get through next time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не имеет значения, засел\n[CS:N]Даскнуар[CR] в засаде или нет.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> На этот раз мы прорвёмся.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå éíååó èîàœåîéÿ, èàòåì\n[CS:N]Äàòëîôàñ[CR] â èàòàäå éìé îåó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îà üóïó ñàè íú ðñïñâæíòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t care if [CS:N]Dusknoir[CR] is\nwaiting to ambush us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have to get through and get\non the Rainbow Stoneship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRIPT/D27P11A/um2404.ssb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне всё равно, засел\n[CS:N]Даскнуар[CR] в засаде или нет.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> На этот раз мы прорвёмся к\nРадужному Камнераблю.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå âòæ ñàâîï, èàòåì\n[CS:N]Äàòëîôàñ[CR] â èàòàäå éìé îåó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îà üóïó ñàè íú ðñïñâæíòÿ ë\nÑàäôçîïíô Ëàíîåñàáìý.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как только вы подготовитесь,\nмы тут же покинем пляж!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë óïìûëï âú ðïäãïóïâéóåòû,\níú óôó çå ðïëéîåí ðìÿç!</t>
   </si>
 </sst>
 </file>
@@ -493,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,17 +868,379 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6">
         <v>378</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4">
+        <v>353</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6">
+        <v>356</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4">
+        <v>331</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6">
+        <v>334</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4">
+        <v>280</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>283</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>286</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6">
+        <v>289</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="4">
+        <v>203</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>206</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6">
+        <v>209</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="4">
+        <v>134</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6">
+        <v>167</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="4">
+        <v>65</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6">
+        <v>68</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="4">
+        <v>20</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6">
+        <v>23</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="4">
+        <v>43</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>46</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
